--- a/docs/PlanungRealisierungsphase.xlsx
+++ b/docs/PlanungRealisierungsphase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nr.</t>
-  </si>
-  <si>
-    <t>März</t>
   </si>
   <si>
     <t>April</t>
@@ -38,19 +35,19 @@
     <t>Projektphase</t>
   </si>
   <si>
-    <t>GUI erstellen</t>
+    <t>main.py</t>
   </si>
   <si>
-    <t>Figur bewegen/Event Handling</t>
+    <t>platform.py</t>
   </si>
   <si>
-    <t>Collision Handling</t>
+    <t>player.py</t>
   </si>
   <si>
-    <t>Punktzähler einbauen</t>
+    <t>monster.py</t>
   </si>
   <si>
-    <t>Testen</t>
+    <t>Abschlusstests</t>
   </si>
 </sst>
 </file>
@@ -133,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -301,15 +298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="3" tint="0.39991454817346722"/>
@@ -332,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -350,103 +338,100 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,18 +739,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="3" customWidth="1"/>
-    <col min="4" max="10" width="3.5" style="4" customWidth="1"/>
+    <col min="3" max="6" width="3.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="3" customWidth="1"/>
+    <col min="8" max="9" width="3.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="3" customWidth="1"/>
     <col min="12" max="13" width="3.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="3.5" style="5" customWidth="1"/>
@@ -784,461 +771,406 @@
     <col min="31" max="31" width="3.5" style="3" customWidth="1"/>
     <col min="32" max="33" width="3.5" style="4" customWidth="1"/>
     <col min="34" max="34" width="3.5" style="5" customWidth="1"/>
-    <col min="35" max="35" width="3.5" style="3" customWidth="1"/>
-    <col min="36" max="37" width="3.5" style="4" customWidth="1"/>
-    <col min="38" max="38" width="3.5" style="5" customWidth="1"/>
-    <col min="39" max="39" width="3.1640625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="3.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="38"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="14"/>
+      <c r="C2" s="26">
+        <v>42451</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26">
+        <v>42458</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="26">
+        <v>42465</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="33">
+        <v>42472</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="26">
+        <v>42479</v>
+      </c>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="33">
+        <v>42486</v>
+      </c>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="10" t="s">
+    <row r="3" spans="1:28" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24">
-        <v>42444</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="24">
-        <v>42451</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24">
-        <v>42458</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="24">
-        <v>42465</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="23">
-        <v>42472</v>
-      </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="24">
-        <v>42479</v>
-      </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="23">
-        <v>42486</v>
-      </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="30"/>
+    <row r="4" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="30"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+    <row r="5" spans="1:28" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
     </row>
-    <row r="6" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
+    <row r="8" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="30"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
     </row>
-    <row r="10" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
-        <v>5</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="30"/>
+    <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1265,102 +1197,88 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="79">
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="E5:F6"/>
     <mergeCell ref="C5:D6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K1:Z1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="M3:N4"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="I3:J4"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D4"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:AD1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="I11:J12"/>
     <mergeCell ref="E11:F12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="AC7:AD8"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="AC9:AD10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/PlanungRealisierungsphase.xlsx
+++ b/docs/PlanungRealisierungsphase.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/OneDrive/GIBB/3. Lehrjahr/iet-306/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Dropbox/GIBB/3. Lehrjahr/iet-306/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nr.</t>
   </si>
@@ -48,6 +51,12 @@
   </si>
   <si>
     <t>Abschlusstests</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>März</t>
   </si>
 </sst>
 </file>
@@ -320,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -338,100 +347,106 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,403 +789,505 @@
     <col min="35" max="35" width="3.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37" t="s">
+      <c r="C1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="38"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="39">
         <v>42451</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39">
         <v>42458</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="26">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39">
         <v>42465</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="33">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="36">
         <v>42472</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="26">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="39">
         <v>42479</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="33">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="36">
         <v>42486</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39">
+        <v>42493</v>
+      </c>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="36">
+        <v>42500</v>
+      </c>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="40"/>
     </row>
-    <row r="3" spans="1:28" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32">
+    <row r="3" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+    <row r="4" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+    <row r="5" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+    <row r="6" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+    <row r="7" spans="1:36" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+    <row r="8" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+    <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
         <v>4</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+    <row r="10" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+    <row r="11" spans="1:36" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+    <row r="12" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1197,55 +1314,56 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y11:Z12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
+  <mergeCells count="102">
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AC7:AD8"/>
+    <mergeCell ref="AE7:AF8"/>
+    <mergeCell ref="AG7:AH8"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="AC9:AD10"/>
+    <mergeCell ref="AE9:AF10"/>
+    <mergeCell ref="AG9:AH10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AG5:AH6"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="K1:Z1"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B3:B4"/>
@@ -1262,23 +1380,52 @@
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:V8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
